--- a/Doc/04_結合テスト/【内定者研修】結合テスト仕様書.xlsx
+++ b/Doc/04_結合テスト/【内定者研修】結合テスト仕様書.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C2FB23-E60C-4B64-A204-CA7B96707EF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト仕様書" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,276 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+  <si>
+    <t>ドキュメント名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Secsoft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１回目テスト</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施者</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタートボタンを押下せずに、盤面をクリックする。
+ゲームが進行しないこと。</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を閉じずに、かつゲームスタートボタンを押下せずに、盤面をクリックする。
+ゲームが進行しないこと。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタートボタンを押下し、敵の強さを選択する画面にて「弱い」を選択する。
+オセロの勝敗が決まるまでゲームを行う。
+盤面が初期化され、中断データファイルが
+作成されること。
+中断データファイルの
+「勝利回数」
+「敗北回数」
+「引き分け回数」が更新されていること。</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を閉じずに、ゲームスタートボタンを押下する。
+敵の強さを選択する画面にて「普通」を選択する。
+オセロの勝敗が決まるまでゲームを行う。
+盤面が初期化され、中断データファイルが
+作成されること。
+中断データファイルの
+「勝利回数」
+「敗北回数」
+「引き分け回数」が更新されていること。</t>
+    <rPh sb="39" eb="41">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オセロを起動。
+「前回中断したデータが存在します。途中から再開しますか？」
+の確認メッセージに対し「はい」を選択した場合、
+再開処理が行われ、中断時の盤面が再現されていること。
+中断データファイルが下記のように更新されていること。
+中断フラグ　：0
+盤面データ　：空白
+対戦相手　　：空白
+敵レベル　　：空白
+何手目か　　：0
+</t>
+    <rPh sb="100" eb="102">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オセロの勝敗が決まるまでゲームを行う。
+盤面が初期化され、中断データファイルが
+作成されること。
+中断データファイルの
+「勝利回数」
+「敗北回数」
+「引き分け回数」が更新されていること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断データファイルを確認する。
+以下の項目が正しく保存されていること。
+　中断フラグ：1
+　対戦相手　：0
+　敵レベル　：ゲーム開始時に選択したレベル
+　　　　　　　(0:弱 1:普通 2:強)
+　何手目か　：中断ボタンを押下した時の手数
+　　　　　　 （ゲーム開始時が1手目）
+　盤面データ：中断ボタンを押下した時の盤面
+　　　　　　   (数字が64個並んだ配列)</t>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタートボタンを押下し、敵の強さを選択する。（強さは何を選んでもよい）
+ゲームを途中まで進め、自分のターンに「中断」ボタンを押下。
+確認メッセージに対し、「いいえ」を選択する。
+オセロ画面が閉じシステムが終了すること。
+その際ユーザデータファイルが更新されていないこと。</t>
+    <rPh sb="26" eb="27">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>中断データファイルを編集し、「中断フラグ」を1にする。
+オセロを起動する。
+「前回中断したデータが存在します。途中から再開しますか？」
+の確認メッセージに対し「いいえ」を選択する。
+中断データファイルの「中断フラグ」が0に更新されていること。</t>
+    <rPh sb="103" eb="105">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">画面を閉じずに、ゲームスタートボタンを押下する。
+敵の強さを選択する画面にて「強い」を選択する。
+ゲームを途中まで進め、自分のターンに「中断」ボタンを押下する。
+確認メッセージに対し「はい」を
+選択した場合、中断データの保存が行われること。
+「中断データを保存しました」と確認メッセージが
+表示され、オセロ画面が閉じシステムが終了すること。
+</t>
+    <rPh sb="39" eb="40">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +296,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,15 +347,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +846,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903E6581-F584-4890-9775-192FDA0BAEDB}">
+  <dimension ref="A1:BC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:S15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
+    <col min="3" max="60" width="2.625" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+    </row>
+    <row r="2" spans="1:55">
+      <c r="A2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="25">
+        <v>44643</v>
+      </c>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="28"/>
+    </row>
+    <row r="3" spans="1:55" ht="9" customHeight="1"/>
+    <row r="4" spans="1:55" ht="15.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="10"/>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="13"/>
+    </row>
+    <row r="6" spans="1:55" ht="87.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+    </row>
+    <row r="7" spans="1:55" ht="195.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+    </row>
+    <row r="8" spans="1:55" ht="79.5" customHeight="1">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+    </row>
+    <row r="9" spans="1:55" ht="213" customHeight="1">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+    </row>
+    <row r="10" spans="1:55" ht="225" customHeight="1">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+    </row>
+    <row r="11" spans="1:55" ht="198.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+    </row>
+    <row r="12" spans="1:55" ht="273.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+    </row>
+    <row r="13" spans="1:55" ht="153" customHeight="1">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+    </row>
+    <row r="14" spans="1:55" ht="183.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+    </row>
+    <row r="15" spans="1:55" ht="171" customHeight="1">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+    </row>
+    <row r="17" spans="1:55">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+    </row>
+    <row r="18" spans="1:55">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+    </row>
+    <row r="19" spans="1:55">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+    </row>
+    <row r="20" spans="1:55">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="154">
+    <mergeCell ref="AR4:BC5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="A2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AW2:BC2"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:S5"/>
+    <mergeCell ref="T4:AE4"/>
+    <mergeCell ref="AF4:AQ4"/>
+    <mergeCell ref="AR6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AR7:BC7"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AJ9:AM9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR9:BC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AJ11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AR11:BC11"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR12:BC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR14:BC14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BC15"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR16:BC16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BC17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AJ18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR18:BC18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AJ19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BC19"/>
+    <mergeCell ref="AJ20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BC20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6:AE15 AN6:AQ15" xr:uid="{4159FA2C-98CB-4A0D-9BF2-0243ADBACF52}">
+      <formula1>"〇,×,△,ー"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>